--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC3547-AEF0-41E4-911E-C0A2EAE6B13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87A8F6-D3CC-416B-9187-0E175F0115D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -253,9 +253,6 @@
     <t>nvarchar2</t>
   </si>
   <si>
-    <t>交易日</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -288,7 +285,19 @@
     <t>Entdy</t>
   </si>
   <si>
-    <t>Entdy &gt;= ,AND Entdy &lt;=</t>
+    <t>會計日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCreatDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;=,AND SupNo %</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate&gt;=, AND CreateDate&lt;= ,AND SupNo %</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -939,27 +948,27 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="4" max="4" width="26.21875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>33</v>
@@ -968,7 +977,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -981,7 +990,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1003,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1005,20 +1014,20 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1038,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1049,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1080,7 +1089,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>2</v>
       </c>
@@ -1099,7 +1108,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>3</v>
       </c>
@@ -1118,7 +1127,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>4</v>
       </c>
@@ -1137,7 +1146,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>5</v>
       </c>
@@ -1156,26 +1165,26 @@
       <c r="F13" s="17"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>7</v>
       </c>
@@ -1194,7 +1203,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>8</v>
       </c>
@@ -1213,7 +1222,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>9</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>10</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>11</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>12</v>
       </c>
@@ -1293,22 +1302,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1319,26 +1328,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>61</v>
+      <c r="B4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87A8F6-D3CC-416B-9187-0E175F0115D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -262,10 +261,6 @@
     <t>SupNo,Entdy</t>
   </si>
   <si>
-    <t>TxAuthorize</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Entdy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -299,17 +294,29 @@
   <si>
     <t>CreateDate&gt;=, AND CreateDate&lt;= ,AND SupNo %</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAuthorize</t>
+  </si>
+  <si>
+    <t>ReasonJson</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>授權編號和理由</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -317,7 +324,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -333,7 +340,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -607,9 +614,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,23 +707,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -752,23 +742,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,31 +917,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="4" max="4" width="26.25" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>33</v>
@@ -977,7 +950,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10" t="s">
@@ -990,7 +963,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +976,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +987,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1000,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1011,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1022,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1089,7 +1062,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="19" customFormat="1">
       <c r="A10" s="32">
         <v>2</v>
       </c>
@@ -1108,7 +1081,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="19" customFormat="1">
       <c r="A11" s="32">
         <v>3</v>
       </c>
@@ -1127,7 +1100,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="19" customFormat="1">
       <c r="A12" s="32">
         <v>4</v>
       </c>
@@ -1146,7 +1119,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="19" customFormat="1">
       <c r="A13" s="32">
         <v>5</v>
       </c>
@@ -1165,122 +1138,141 @@
       <c r="F13" s="17"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="19" customFormat="1">
       <c r="A14" s="32">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="F14" s="33"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="19" customFormat="1">
       <c r="A15" s="32">
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="19" customFormat="1">
       <c r="A16" s="32">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="19" customFormat="1">
       <c r="A17" s="32">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="32">
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="32">
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="32">
         <v>12</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="32">
+        <v>13</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1301,23 +1293,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1328,34 +1320,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthorize.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -201,28 +201,16 @@
     <t>AutoSeq</t>
   </si>
   <si>
-    <t>授權理由</t>
-  </si>
-  <si>
     <t>SupNo</t>
   </si>
   <si>
     <t>TlrNo</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>ReasonCode</t>
-  </si>
-  <si>
     <t>授權主管編號</t>
   </si>
   <si>
     <t>交易人員</t>
-  </si>
-  <si>
-    <t>授權理由代碼</t>
   </si>
   <si>
     <t>6</t>
@@ -299,13 +287,19 @@
     <t>TxAuthorize</t>
   </si>
   <si>
-    <t>ReasonJson</t>
-  </si>
-  <si>
     <t>1200</t>
   </si>
   <si>
     <t>授權編號和理由</t>
+  </si>
+  <si>
+    <t>交易理由</t>
+  </si>
+  <si>
+    <t>TradeReason</t>
+  </si>
+  <si>
+    <t>ReasonFAJson</t>
   </si>
 </sst>
 </file>
@@ -918,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
@@ -941,7 +935,7 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>33</v>
@@ -993,7 +987,7 @@
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1067,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>26</v>
@@ -1086,193 +1080,174 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1">
       <c r="A12" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1">
       <c r="A13" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="33"/>
       <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1">
       <c r="A14" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1">
       <c r="A15" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1">
       <c r="A16" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="32">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="32">
+        <v>12</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="32">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="31" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="32">
+        <v>13</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="32">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="32">
-        <v>13</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="E20" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1322,32 +1297,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
